--- a/biology/Botanique/Les_Patates/Les_Patates.xlsx
+++ b/biology/Botanique/Les_Patates/Les_Patates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Patates est un film français réalisé par Claude Autant-Lara en 1969.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Bourg-Fidèle, petit village des Ardennes (pendant la guerre), il est devenu de plus en plus difficile pour Clovis Parizel, ouvrier de fonderie, de nourrir sa famille. Un jour, il arrive à son dernier sac de patates. Sa femme, Mathilde, lui conseille d'aller voir les Guignard, parents d'un camarade de guerre prisonnier en Allemagne, pour leur apporter la lettre qu'il a reçue de leur fils et leur demander quelques patates. D'abord hésitant quant à cette idée, c'est sur une suggestion de son beau-frère, douanier, qui lui conseille de se les faire envoyer par chemin de fer, qu'il décide finalement de passer en zone libre. Sans laissez-passer, il est obligé de descendre du train en arrivant en zone libre mais ayant oublié son chapeau, il parvient à remonter dans le train, pendant que les Allemands lui tournent le dos.
 Arrivé sur place, il apprend que les Guignard ne font plus de patates mais ces derniers, touchés par la gentillesse et la sensibilité de Clovis, décident de lui donner quelques kilos de hâtives, qu'il rapporte dans une valise. Seulement, il lui faut regagner la zone occupée et il décide d'y passer dans un camion, caché sous des sacs de blés, et dans lequel il fait la connaissance d'une jeune femme qui essaie de rejoindre la Belgique. Alors qu'ils se reposent dans un bois, deux gendarmes arrivent et accidentellement, Clovis laisse échapper quelques patates dans le fossé. Ces derniers les ramassent et repartent aussitôt. Mais elles seront récupérées par Clovis.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Les Patates
 Réalisation : Claude Autant-Lara
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierre Perret : Clovis Parizel
@@ -660,7 +678,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a été tourné dans les Ardennes principalement dans la petite commune de Bourg-Fidèle, située entre Rocroi et Charleville-Mézières pour les extérieurs et pour les intérieurs, notamment dans le café Bauchot, et l'ancien magasin d'alimentation nommé La Coopette par les habitants du village. La maison où furent tournées les scènes de la demeure de Clovis est aujourd'hui ornée d'un panneau « Les Patates ». D'autres scènes ont toutefois dû être tournées en studio.
 Le tournage a été perturbé par les intempéries, l'été 1969 s'étant révélé particulièrement pluvieux.
